--- a/graph_generation/results/hermes_llama2/level_2/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_2/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>prompt</t>
   </si>
@@ -84,10 +84,10 @@
    A B C D E F G H I J
  A 0 1 1 0 0 0 0 0 0 0
  B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 1 1 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
+ C 1 0 0 1 0 0 1 0 0 0
+ D 0 0 1 0 1 1 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 0
- F 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0
  G 0 0 1 0 0 0 0 1 0 0
  H 0 0 0 0 0 0 1 0 1 0
  I 0 0 0 0 0 0 0 1 0 1
@@ -148,15 +148,15 @@
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 1
+ B 1 0 1 1 0 0 0 0 0 0
  C 0 1 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 1 0
- E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
+ D 0 1 0 0 1 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0
+ F 0 0 0 1 0 0 1 0 1 0
  G 0 0 0 0 0 1 0 1 0 0
  H 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 1 0 0 0 0 0 0
- J 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -212,13 +212,13 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 1 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0
+ D 0 0 1 0 1 0 1 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0
  F 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 1 0 0 1 0 0
+ G 0 0 0 1 0 0 0 1 0 0
  H 0 0 0 0 0 0 1 0 1 0
  I 0 0 0 0 0 0 0 1 0 1
  J 0 0 0 0 0 0 0 0 1 0
@@ -277,15 +277,15 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 1 0 0
+ C 0 1 0 1 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 1 0 1 0
- F 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 1 0 0 1 0 0
- H 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 1 0 0 0 0 1
+ E 0 0 0 1 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0
+ H 0 1 0 0 0 0 0 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
@@ -342,16 +342,16 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 1 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0
- E 0 1 0 0 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 1 0
+ A 0 1 1 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 1
+ D 0 0 1 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 1 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 1 0
  H 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 1 0 0 1
- J 0 0 0 0 0 0 0 0 1 0
+ I 0 0 0 0 0 0 1 0 0 0
+ J 0 0 1 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -407,16 +407,16 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 1
+ A 0 1 0 1 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 1 0
+ F 0 0 0 0 1 0 1 0 0 0
  G 0 0 0 0 0 1 0 1 0 0
- H 0 0 0 0 0 0 1 0 1 0
- I 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -472,16 +472,16 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 0 0
- H 0 0 0 0 0 0 1 0 1 1
- I 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 1 0 0
+ A 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 1 0 0 0
+ C 0 1 0 1 1 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0
+ G 0 1 0 0 0 0 0 1 0 0
+ H 0 0 0 0 0 0 1 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -537,16 +537,16 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0
+ A 0 1 0 0 1 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0
  F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 1 1
- H 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 1 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0
+ H 0 0 0 0 0 0 1 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -602,16 +602,16 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 1
- F 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 1 0 0 1 0 0
- H 0 0 0 0 0 0 1 0 1 0
+ A 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0
+ C 0 1 0 1 0 1 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 1 0 0
+ G 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 1
  I 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0
     </t>
   </si>
   <si>
@@ -669,60 +669,57 @@
    A B C D E F G H I J
  A 0 1 1 0 0 0 0 0 0 0
  B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 1 0 0
- D 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0
  F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 0 0 0
- H 0 0 1 0 0 0 0 0 1 1
- I 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 1 0 0
+ G 0 0 0 0 0 1 0 1 0 0
+ H 0 0 0 0 0 0 1 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
     <t>A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; E -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; E -&gt; F -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; E -&gt; F -&gt; G -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; E -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; H -&gt; J</t>
+    <t>A -&gt; B -&gt; D -&gt; F -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; F -&gt; H -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>The shortest path from node A to node J is A -&gt; G -&gt; H -&gt; I -&gt; J.</t>
   </si>
   <si>
+    <t>The shortest path from node A to node J is A -&gt; F -&gt; I -&gt; J.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is A -&gt; I -&gt; J.</t>
+  </si>
+  <si>
     <t>The shortest path from node A to node J is A -&gt; F -&gt; J.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is A -&gt; I -&gt; J.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is A -&gt; H -&gt; J.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is A -&gt; E -&gt; I -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -1114,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1128,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1142,7 +1139,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1156,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1170,7 +1167,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1181,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1195,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1209,10 +1206,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1223,10 +1220,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1237,10 +1234,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
